--- a/result/项目参与人数表.xlsx
+++ b/result/项目参与人数表.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
-  <si>
-    <t>项目参与人数</t>
-  </si>
-  <si>
-    <t>数量</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>2015项目参与人数</t>
+  </si>
+  <si>
+    <t>2015数量</t>
+  </si>
+  <si>
+    <t>2016项目参与人数</t>
+  </si>
+  <si>
+    <t>2016数量</t>
+  </si>
+  <si>
+    <t>2017项目参与人数</t>
+  </si>
+  <si>
+    <t>2017数量</t>
   </si>
   <si>
     <t>5</t>
@@ -430,16 +442,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -459,7 +471,7 @@
         <v>4158</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>3674</v>
@@ -482,7 +494,7 @@
         <v>3447</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>3033</v>
@@ -505,7 +517,7 @@
         <v>2572</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>2539</v>
@@ -528,7 +540,7 @@
         <v>962</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>1627</v>
@@ -551,7 +563,7 @@
         <v>567</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>1194</v>
@@ -574,7 +586,7 @@
         <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>391</v>
@@ -643,7 +655,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>89</v>
@@ -689,7 +701,7 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>58</v>
@@ -735,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -758,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G15">
         <v>12</v>
@@ -791,7 +803,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -802,7 +814,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -813,7 +825,7 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G20">
         <v>1</v>
